--- a/Jetpack/Assets/Resources/fish_patterns.xlsx
+++ b/Jetpack/Assets/Resources/fish_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\School\ecs189L\back-to-the-jungle\Jetpack\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68F23B-C3DB-41A4-91D8-E71BD686B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334172E0-E393-43A1-8B9C-45C9F0B04F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6B53B84-B4B8-429A-BFC6-3A192A739905}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>D6</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>I2</t>
-  </si>
-  <si>
-    <t>BRUH</t>
   </si>
 </sst>
 </file>
@@ -447,23 +444,20 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>

--- a/Jetpack/Assets/Resources/fish_patterns.xlsx
+++ b/Jetpack/Assets/Resources/fish_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\School\ecs189L\back-to-the-jungle\Jetpack\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334172E0-E393-43A1-8B9C-45C9F0B04F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8FA1AB-76FE-413E-AB4A-8504A3CF73EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6B53B84-B4B8-429A-BFC6-3A192A739905}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{D6B53B84-B4B8-429A-BFC6-3A192A739905}"/>
   </bookViews>
   <sheets>
     <sheet name="BEAN" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>D6</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>H2</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
   <si>
     <t>F4</t>
@@ -443,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEEA55C-653B-49A5-9FC5-07B0418692D5}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -586,17 +583,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B783E41-6E03-40D6-9F79-8BFA25D1C465}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -738,7 +735,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,7 +786,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Jetpack/Assets/Resources/fish_patterns.xlsx
+++ b/Jetpack/Assets/Resources/fish_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\School\ecs189L\back-to-the-jungle\Jetpack\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8FA1AB-76FE-413E-AB4A-8504A3CF73EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3108EC9D-6B6A-43AD-AC8B-65BBD39C1F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{D6B53B84-B4B8-429A-BFC6-3A192A739905}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D6B53B84-B4B8-429A-BFC6-3A192A739905}"/>
   </bookViews>
   <sheets>
     <sheet name="BEAN" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Heart" sheetId="12" r:id="rId7"/>
     <sheet name="Big Arrow" sheetId="14" r:id="rId8"/>
     <sheet name="Small Arrows" sheetId="15" r:id="rId9"/>
+    <sheet name="Smile" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>D6</t>
   </si>
@@ -66,6 +67,12 @@
   <si>
     <t>I2</t>
   </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,17 +132,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0D0D0D"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,7 +461,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -455,7 +475,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -464,7 +484,7 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+      <c r="D3" s="4"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="L3" s="1"/>
@@ -474,7 +494,7 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -486,7 +506,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
       <c r="L5" s="1"/>
@@ -510,12 +530,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E0EDBF-61CB-4724-AD1C-563DE62185C5}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC77F05-1BB9-4B99-BEC3-72145FA551A3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -529,7 +591,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -545,7 +607,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6A6877-C119-4BD2-8E74-B92AB35BE0E2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -597,19 +659,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -621,7 +683,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,7 +721,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -685,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B783E41-6E03-40D6-9F79-8BFA25D1C465}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +797,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,7 +848,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
